--- a/views.xlsx
+++ b/views.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Desktop\Text Mining Stack Overflow\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443A4B61-1BC0-454E-8AB3-ACA1C69CA473}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4356" yWindow="2076" windowWidth="12996" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>javascript</t>
   </si>
@@ -32,13 +38,16 @@
   </si>
   <si>
     <t>scala</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -121,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -153,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -362,148 +415,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2015</v>
       </c>
-      <c r="C1">
+      <c r="B2">
+        <v>0.28966263562439049</v>
+      </c>
+      <c r="C2">
+        <v>0.23756952369911541</v>
+      </c>
+      <c r="D2">
+        <v>0.17420914037795179</v>
+      </c>
+      <c r="E2">
+        <v>0.13471818703044991</v>
+      </c>
+      <c r="F2">
+        <v>6.8118905612524525E-2</v>
+      </c>
+      <c r="G2">
+        <v>9.5721607655567698E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2016</v>
       </c>
-      <c r="D1">
+      <c r="B3">
+        <v>0.33510117583593152</v>
+      </c>
+      <c r="C3">
+        <v>0.23469139005142431</v>
+      </c>
+      <c r="D3">
+        <v>0.15022010126617419</v>
+      </c>
+      <c r="E3">
+        <v>0.11229290100967181</v>
+      </c>
+      <c r="F3">
+        <v>7.4465372599406845E-2</v>
+      </c>
+      <c r="G3">
+        <v>9.3229059237391415E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2017</v>
       </c>
-      <c r="E1">
-        <v>2018</v>
-      </c>
-      <c r="F1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.2896626356243905</v>
-      </c>
-      <c r="C2">
-        <v>0.3351011758359315</v>
-      </c>
-      <c r="D2">
-        <v>0.3328892201634571</v>
-      </c>
-      <c r="E2">
-        <v>0.3335981483656552</v>
-      </c>
-      <c r="F2">
-        <v>0.3324273891307989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.2375695236991154</v>
-      </c>
-      <c r="C3">
-        <v>0.2346913900514243</v>
-      </c>
-      <c r="D3">
-        <v>0.2478038841592589</v>
-      </c>
-      <c r="E3">
-        <v>0.2488821423577085</v>
-      </c>
-      <c r="F3">
-        <v>0.2496867877052892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
       <c r="B4">
-        <v>0.1742091403779518</v>
+        <v>0.33288922016345712</v>
       </c>
       <c r="C4">
-        <v>0.1502201012661742</v>
+        <v>0.24780388415925891</v>
       </c>
       <c r="D4">
         <v>0.1460256572208527</v>
       </c>
       <c r="E4">
-        <v>0.1419829784563117</v>
+        <v>0.1112198805510184</v>
       </c>
       <c r="F4">
-        <v>0.1410858812940465</v>
+        <v>7.3337569491650156E-2</v>
+      </c>
+      <c r="G4">
+        <v>8.8723788413762758E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>3</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2018</v>
       </c>
       <c r="B5">
-        <v>0.1347181870304499</v>
+        <v>0.33359814836565521</v>
       </c>
       <c r="C5">
-        <v>0.1122929010096718</v>
+        <v>0.2488821423577085</v>
       </c>
       <c r="D5">
-        <v>0.1112198805510184</v>
+        <v>0.14198297845631169</v>
       </c>
       <c r="E5">
         <v>0.1175204877496492</v>
       </c>
       <c r="F5">
+        <v>7.1190839639511783E-2</v>
+      </c>
+      <c r="G5">
+        <v>8.682540343116385E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>0.33242738913079889</v>
+      </c>
+      <c r="C6">
+        <v>0.24968678770528921</v>
+      </c>
+      <c r="D6">
+        <v>0.14108588129404651</v>
+      </c>
+      <c r="E6">
         <v>0.1181039822483909</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.06811890561252452</v>
-      </c>
-      <c r="C6">
-        <v>0.07446537259940685</v>
-      </c>
-      <c r="D6">
-        <v>0.07333756949165016</v>
-      </c>
-      <c r="E6">
-        <v>0.07119083963951178</v>
-      </c>
       <c r="F6">
-        <v>0.07093058628106934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.0957216076555677</v>
-      </c>
-      <c r="C7">
-        <v>0.09322905923739142</v>
-      </c>
-      <c r="D7">
-        <v>0.08872378841376276</v>
-      </c>
-      <c r="E7">
-        <v>0.08682540343116385</v>
-      </c>
-      <c r="F7">
-        <v>0.08776537334040518</v>
+        <v>7.0930586281069338E-2</v>
+      </c>
+      <c r="G6">
+        <v>8.7765373340405184E-2</v>
       </c>
     </row>
   </sheetData>
